--- a/.playwright-mcp/CUI-Assets-20260120.xlsx
+++ b/.playwright-mcp/CUI-Assets-20260120.xlsx
@@ -428,7 +428,7 @@
     </row>
     <row r="4">
       <c r="A4" t="str">
-        <v>Generated: 2026-01-20 00:42:09Z</v>
+        <v>Generated: 2026-01-20 04:14:48Z</v>
       </c>
     </row>
     <row r="5">
@@ -576,7 +576,7 @@
         <v>2100</v>
       </c>
       <c r="I10" t="str">
-        <v>Apr 13, 2026</v>
+        <v>Apr 14, 2026</v>
       </c>
       <c r="J10" t="str">
         <v>No</v>
@@ -614,7 +614,7 @@
         <v>450</v>
       </c>
       <c r="I11" t="str">
-        <v>May 18, 2026</v>
+        <v>May 19, 2026</v>
       </c>
       <c r="J11" t="str">
         <v>No</v>
@@ -766,7 +766,7 @@
         <v>890</v>
       </c>
       <c r="I15" t="str">
-        <v>Mar 19, 2026</v>
+        <v>Mar 20, 2026</v>
       </c>
       <c r="J15" t="str">
         <v>No</v>
@@ -842,7 +842,7 @@
         <v>1100</v>
       </c>
       <c r="I17" t="str">
-        <v>Mar 29, 2026</v>
+        <v>Mar 30, 2026</v>
       </c>
       <c r="J17" t="str">
         <v>No</v>

--- a/.playwright-mcp/CUI-Assets-20260120.xlsx
+++ b/.playwright-mcp/CUI-Assets-20260120.xlsx
@@ -428,7 +428,7 @@
     </row>
     <row r="4">
       <c r="A4" t="str">
-        <v>Generated: 2026-01-20 04:14:48Z</v>
+        <v>Generated: 2026-01-20 07:00:35Z</v>
       </c>
     </row>
     <row r="5">

--- a/.playwright-mcp/CUI-Assets-20260120.xlsx
+++ b/.playwright-mcp/CUI-Assets-20260120.xlsx
@@ -428,7 +428,7 @@
     </row>
     <row r="4">
       <c r="A4" t="str">
-        <v>Generated: 2026-01-20 07:00:35Z</v>
+        <v>Generated: 2026-01-20 10:07:37Z</v>
       </c>
     </row>
     <row r="5">

--- a/.playwright-mcp/CUI-Assets-20260120.xlsx
+++ b/.playwright-mcp/CUI-Assets-20260120.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L19"/>
+  <dimension ref="A1:L18"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -428,12 +428,12 @@
     </row>
     <row r="4">
       <c r="A4" t="str">
-        <v>Generated: 2026-01-20 10:07:37Z</v>
+        <v>Generated: 2026-01-20 11:39:01Z</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="str">
-        <v>Total Assets: 10</v>
+        <v>Total Assets: 9</v>
       </c>
     </row>
     <row r="7">
@@ -816,46 +816,8 @@
         <v>En route from vendor repair</v>
       </c>
     </row>
-    <row r="17">
-      <c r="A17" t="str">
-        <v>CRIIS-010</v>
-      </c>
-      <c r="B17" t="str">
-        <v>PN-NAV-UNIT</v>
-      </c>
-      <c r="C17" t="str">
-        <v>Navigation Unit</v>
-      </c>
-      <c r="D17" t="str">
-        <v>FMC</v>
-      </c>
-      <c r="E17" t="str">
-        <v>Full Mission Capable</v>
-      </c>
-      <c r="F17" t="str">
-        <v>Field Site Bravo</v>
-      </c>
-      <c r="G17" t="str">
-        <v>field</v>
-      </c>
-      <c r="H17">
-        <v>1100</v>
-      </c>
-      <c r="I17" t="str">
-        <v>Mar 30, 2026</v>
-      </c>
-      <c r="J17" t="str">
-        <v>No</v>
-      </c>
-      <c r="K17" t="str">
-        <v>No</v>
-      </c>
-      <c r="L17" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="str">
+    <row r="18">
+      <c r="A18" t="str">
         <v>CUI - CONTROLLED UNCLASSIFIED INFORMATION</v>
       </c>
     </row>
@@ -865,10 +827,10 @@
     <mergeCell ref="A3:L3"/>
     <mergeCell ref="A4:L4"/>
     <mergeCell ref="A5:L5"/>
-    <mergeCell ref="A19:L19"/>
+    <mergeCell ref="A18:L18"/>
   </mergeCells>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:L19"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:L18"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/.playwright-mcp/CUI-Assets-20260120.xlsx
+++ b/.playwright-mcp/CUI-Assets-20260120.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L18"/>
+  <dimension ref="A1:L19"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -428,12 +428,12 @@
     </row>
     <row r="4">
       <c r="A4" t="str">
-        <v>Generated: 2026-01-20 11:39:01Z</v>
+        <v>Generated: 2026-01-20 14:47:15Z</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="str">
-        <v>Total Assets: 9</v>
+        <v>Total Assets: 10</v>
       </c>
     </row>
     <row r="7">
@@ -816,8 +816,46 @@
         <v>En route from vendor repair</v>
       </c>
     </row>
-    <row r="18">
-      <c r="A18" t="str">
+    <row r="17">
+      <c r="A17" t="str">
+        <v>CRIIS-010</v>
+      </c>
+      <c r="B17" t="str">
+        <v>PN-NAV-UNIT</v>
+      </c>
+      <c r="C17" t="str">
+        <v>Navigation Unit</v>
+      </c>
+      <c r="D17" t="str">
+        <v>FMC</v>
+      </c>
+      <c r="E17" t="str">
+        <v>Full Mission Capable</v>
+      </c>
+      <c r="F17" t="str">
+        <v>Field Site Bravo</v>
+      </c>
+      <c r="G17" t="str">
+        <v>field</v>
+      </c>
+      <c r="H17">
+        <v>1100</v>
+      </c>
+      <c r="I17" t="str">
+        <v>Mar 30, 2026</v>
+      </c>
+      <c r="J17" t="str">
+        <v>No</v>
+      </c>
+      <c r="K17" t="str">
+        <v>No</v>
+      </c>
+      <c r="L17" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="str">
         <v>CUI - CONTROLLED UNCLASSIFIED INFORMATION</v>
       </c>
     </row>
@@ -827,10 +865,10 @@
     <mergeCell ref="A3:L3"/>
     <mergeCell ref="A4:L4"/>
     <mergeCell ref="A5:L5"/>
-    <mergeCell ref="A18:L18"/>
+    <mergeCell ref="A19:L19"/>
   </mergeCells>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:L18"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:L19"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/.playwright-mcp/CUI-Assets-20260120.xlsx
+++ b/.playwright-mcp/CUI-Assets-20260120.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L19"/>
+  <dimension ref="A1:L53"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -428,12 +428,12 @@
     </row>
     <row r="4">
       <c r="A4" t="str">
-        <v>Generated: 2026-01-20 14:47:15Z</v>
+        <v>Generated: 2026-01-20 15:27:22Z</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="str">
-        <v>Total Assets: 10</v>
+        <v>Total Assets: 44</v>
       </c>
     </row>
     <row r="7">
@@ -818,13 +818,13 @@
     </row>
     <row r="17">
       <c r="A17" t="str">
-        <v>CRIIS-010</v>
+        <v>TEST-SPARE-001</v>
       </c>
       <c r="B17" t="str">
-        <v>PN-NAV-UNIT</v>
+        <v>PN-TEST-001</v>
       </c>
       <c r="C17" t="str">
-        <v>Navigation Unit</v>
+        <v>Spare Part PN-TEST-001</v>
       </c>
       <c r="D17" t="str">
         <v>FMC</v>
@@ -833,16 +833,13 @@
         <v>Full Mission Capable</v>
       </c>
       <c r="F17" t="str">
-        <v>Field Site Bravo</v>
+        <v>No Location</v>
       </c>
       <c r="G17" t="str">
-        <v>field</v>
-      </c>
-      <c r="H17">
-        <v>1100</v>
+        <v>depot</v>
       </c>
       <c r="I17" t="str">
-        <v>Mar 30, 2026</v>
+        <v/>
       </c>
       <c r="J17" t="str">
         <v>No</v>
@@ -851,11 +848,1201 @@
         <v>No</v>
       </c>
       <c r="L17" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="str">
+        <v>TEST-SPARE-002</v>
+      </c>
+      <c r="B18" t="str">
+        <v>PN-TEST-002</v>
+      </c>
+      <c r="C18" t="str">
+        <v>Spare Part PN-TEST-002</v>
+      </c>
+      <c r="D18" t="str">
+        <v>FMC</v>
+      </c>
+      <c r="E18" t="str">
+        <v>Full Mission Capable</v>
+      </c>
+      <c r="F18" t="str">
+        <v>No Location</v>
+      </c>
+      <c r="G18" t="str">
+        <v>depot</v>
+      </c>
+      <c r="I18" t="str">
+        <v/>
+      </c>
+      <c r="J18" t="str">
+        <v>No</v>
+      </c>
+      <c r="K18" t="str">
+        <v>No</v>
+      </c>
+      <c r="L18" t="str">
         <v/>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="str">
+        <v>TEST-SPARE-003</v>
+      </c>
+      <c r="B19" t="str">
+        <v>PN-TEST-003</v>
+      </c>
+      <c r="C19" t="str">
+        <v>Spare Part PN-TEST-003</v>
+      </c>
+      <c r="D19" t="str">
+        <v>FMC</v>
+      </c>
+      <c r="E19" t="str">
+        <v>Full Mission Capable</v>
+      </c>
+      <c r="F19" t="str">
+        <v>No Location</v>
+      </c>
+      <c r="G19" t="str">
+        <v>depot</v>
+      </c>
+      <c r="I19" t="str">
+        <v/>
+      </c>
+      <c r="J19" t="str">
+        <v>No</v>
+      </c>
+      <c r="K19" t="str">
+        <v>No</v>
+      </c>
+      <c r="L19" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="str">
+        <v>TEST-SPARE-004</v>
+      </c>
+      <c r="B20" t="str">
+        <v>PN-TEST-004</v>
+      </c>
+      <c r="C20" t="str">
+        <v>Spare Part PN-TEST-004</v>
+      </c>
+      <c r="D20" t="str">
+        <v>FMC</v>
+      </c>
+      <c r="E20" t="str">
+        <v>Full Mission Capable</v>
+      </c>
+      <c r="F20" t="str">
+        <v>No Location</v>
+      </c>
+      <c r="G20" t="str">
+        <v>depot</v>
+      </c>
+      <c r="I20" t="str">
+        <v/>
+      </c>
+      <c r="J20" t="str">
+        <v>No</v>
+      </c>
+      <c r="K20" t="str">
+        <v>No</v>
+      </c>
+      <c r="L20" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="str">
+        <v>TEST-SPARE-005</v>
+      </c>
+      <c r="B21" t="str">
+        <v>PN-TEST-005</v>
+      </c>
+      <c r="C21" t="str">
+        <v>Spare Part PN-TEST-005</v>
+      </c>
+      <c r="D21" t="str">
+        <v>FMC</v>
+      </c>
+      <c r="E21" t="str">
+        <v>Full Mission Capable</v>
+      </c>
+      <c r="F21" t="str">
+        <v>No Location</v>
+      </c>
+      <c r="G21" t="str">
+        <v>depot</v>
+      </c>
+      <c r="I21" t="str">
+        <v/>
+      </c>
+      <c r="J21" t="str">
+        <v>No</v>
+      </c>
+      <c r="K21" t="str">
+        <v>No</v>
+      </c>
+      <c r="L21" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="str">
+        <v>TEST-SPARE-006</v>
+      </c>
+      <c r="B22" t="str">
+        <v>PN-TEST-006</v>
+      </c>
+      <c r="C22" t="str">
+        <v>Spare Part PN-TEST-006</v>
+      </c>
+      <c r="D22" t="str">
+        <v>FMC</v>
+      </c>
+      <c r="E22" t="str">
+        <v>Full Mission Capable</v>
+      </c>
+      <c r="F22" t="str">
+        <v>No Location</v>
+      </c>
+      <c r="G22" t="str">
+        <v>depot</v>
+      </c>
+      <c r="I22" t="str">
+        <v/>
+      </c>
+      <c r="J22" t="str">
+        <v>No</v>
+      </c>
+      <c r="K22" t="str">
+        <v>No</v>
+      </c>
+      <c r="L22" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="str">
+        <v>TEST-SPARE-007</v>
+      </c>
+      <c r="B23" t="str">
+        <v>PN-TEST-007</v>
+      </c>
+      <c r="C23" t="str">
+        <v>Spare Part PN-TEST-007</v>
+      </c>
+      <c r="D23" t="str">
+        <v>FMC</v>
+      </c>
+      <c r="E23" t="str">
+        <v>Full Mission Capable</v>
+      </c>
+      <c r="F23" t="str">
+        <v>No Location</v>
+      </c>
+      <c r="G23" t="str">
+        <v>depot</v>
+      </c>
+      <c r="I23" t="str">
+        <v/>
+      </c>
+      <c r="J23" t="str">
+        <v>No</v>
+      </c>
+      <c r="K23" t="str">
+        <v>No</v>
+      </c>
+      <c r="L23" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="str">
+        <v>TEST-SPARE-008</v>
+      </c>
+      <c r="B24" t="str">
+        <v>PN-TEST-008</v>
+      </c>
+      <c r="C24" t="str">
+        <v>Spare Part PN-TEST-008</v>
+      </c>
+      <c r="D24" t="str">
+        <v>FMC</v>
+      </c>
+      <c r="E24" t="str">
+        <v>Full Mission Capable</v>
+      </c>
+      <c r="F24" t="str">
+        <v>No Location</v>
+      </c>
+      <c r="G24" t="str">
+        <v>depot</v>
+      </c>
+      <c r="I24" t="str">
+        <v/>
+      </c>
+      <c r="J24" t="str">
+        <v>No</v>
+      </c>
+      <c r="K24" t="str">
+        <v>No</v>
+      </c>
+      <c r="L24" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="str">
+        <v>TEST-SPARE-009</v>
+      </c>
+      <c r="B25" t="str">
+        <v>PN-TEST-009</v>
+      </c>
+      <c r="C25" t="str">
+        <v>Spare Part PN-TEST-009</v>
+      </c>
+      <c r="D25" t="str">
+        <v>FMC</v>
+      </c>
+      <c r="E25" t="str">
+        <v>Full Mission Capable</v>
+      </c>
+      <c r="F25" t="str">
+        <v>No Location</v>
+      </c>
+      <c r="G25" t="str">
+        <v>depot</v>
+      </c>
+      <c r="I25" t="str">
+        <v/>
+      </c>
+      <c r="J25" t="str">
+        <v>No</v>
+      </c>
+      <c r="K25" t="str">
+        <v>No</v>
+      </c>
+      <c r="L25" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="str">
+        <v>TEST-SPARE-010</v>
+      </c>
+      <c r="B26" t="str">
+        <v>PN-TEST-010</v>
+      </c>
+      <c r="C26" t="str">
+        <v>Spare Part PN-TEST-010</v>
+      </c>
+      <c r="D26" t="str">
+        <v>FMC</v>
+      </c>
+      <c r="E26" t="str">
+        <v>Full Mission Capable</v>
+      </c>
+      <c r="F26" t="str">
+        <v>No Location</v>
+      </c>
+      <c r="G26" t="str">
+        <v>depot</v>
+      </c>
+      <c r="I26" t="str">
+        <v/>
+      </c>
+      <c r="J26" t="str">
+        <v>No</v>
+      </c>
+      <c r="K26" t="str">
+        <v>No</v>
+      </c>
+      <c r="L26" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="str">
+        <v>TEST-SPARE-011</v>
+      </c>
+      <c r="B27" t="str">
+        <v>PN-TEST-011</v>
+      </c>
+      <c r="C27" t="str">
+        <v>Spare Part PN-TEST-011</v>
+      </c>
+      <c r="D27" t="str">
+        <v>FMC</v>
+      </c>
+      <c r="E27" t="str">
+        <v>Full Mission Capable</v>
+      </c>
+      <c r="F27" t="str">
+        <v>No Location</v>
+      </c>
+      <c r="G27" t="str">
+        <v>depot</v>
+      </c>
+      <c r="I27" t="str">
+        <v/>
+      </c>
+      <c r="J27" t="str">
+        <v>No</v>
+      </c>
+      <c r="K27" t="str">
+        <v>No</v>
+      </c>
+      <c r="L27" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="str">
+        <v>TEST-SPARE-012</v>
+      </c>
+      <c r="B28" t="str">
+        <v>PN-TEST-012</v>
+      </c>
+      <c r="C28" t="str">
+        <v>Spare Part PN-TEST-012</v>
+      </c>
+      <c r="D28" t="str">
+        <v>FMC</v>
+      </c>
+      <c r="E28" t="str">
+        <v>Full Mission Capable</v>
+      </c>
+      <c r="F28" t="str">
+        <v>No Location</v>
+      </c>
+      <c r="G28" t="str">
+        <v>depot</v>
+      </c>
+      <c r="I28" t="str">
+        <v/>
+      </c>
+      <c r="J28" t="str">
+        <v>No</v>
+      </c>
+      <c r="K28" t="str">
+        <v>No</v>
+      </c>
+      <c r="L28" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="str">
+        <v>TEST-SPARE-013</v>
+      </c>
+      <c r="B29" t="str">
+        <v>PN-TEST-013</v>
+      </c>
+      <c r="C29" t="str">
+        <v>Spare Part PN-TEST-013</v>
+      </c>
+      <c r="D29" t="str">
+        <v>FMC</v>
+      </c>
+      <c r="E29" t="str">
+        <v>Full Mission Capable</v>
+      </c>
+      <c r="F29" t="str">
+        <v>No Location</v>
+      </c>
+      <c r="G29" t="str">
+        <v>depot</v>
+      </c>
+      <c r="I29" t="str">
+        <v/>
+      </c>
+      <c r="J29" t="str">
+        <v>No</v>
+      </c>
+      <c r="K29" t="str">
+        <v>No</v>
+      </c>
+      <c r="L29" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="str">
+        <v>TEST-SPARE-014</v>
+      </c>
+      <c r="B30" t="str">
+        <v>PN-TEST-014</v>
+      </c>
+      <c r="C30" t="str">
+        <v>Spare Part PN-TEST-014</v>
+      </c>
+      <c r="D30" t="str">
+        <v>FMC</v>
+      </c>
+      <c r="E30" t="str">
+        <v>Full Mission Capable</v>
+      </c>
+      <c r="F30" t="str">
+        <v>No Location</v>
+      </c>
+      <c r="G30" t="str">
+        <v>depot</v>
+      </c>
+      <c r="I30" t="str">
+        <v/>
+      </c>
+      <c r="J30" t="str">
+        <v>No</v>
+      </c>
+      <c r="K30" t="str">
+        <v>No</v>
+      </c>
+      <c r="L30" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="str">
+        <v>TEST-SPARE-015</v>
+      </c>
+      <c r="B31" t="str">
+        <v>PN-TEST-015</v>
+      </c>
+      <c r="C31" t="str">
+        <v>Spare Part PN-TEST-015</v>
+      </c>
+      <c r="D31" t="str">
+        <v>FMC</v>
+      </c>
+      <c r="E31" t="str">
+        <v>Full Mission Capable</v>
+      </c>
+      <c r="F31" t="str">
+        <v>No Location</v>
+      </c>
+      <c r="G31" t="str">
+        <v>depot</v>
+      </c>
+      <c r="I31" t="str">
+        <v/>
+      </c>
+      <c r="J31" t="str">
+        <v>No</v>
+      </c>
+      <c r="K31" t="str">
+        <v>No</v>
+      </c>
+      <c r="L31" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="str">
+        <v>TEST-SPARE-016</v>
+      </c>
+      <c r="B32" t="str">
+        <v>PN-TEST-016</v>
+      </c>
+      <c r="C32" t="str">
+        <v>Spare Part PN-TEST-016</v>
+      </c>
+      <c r="D32" t="str">
+        <v>FMC</v>
+      </c>
+      <c r="E32" t="str">
+        <v>Full Mission Capable</v>
+      </c>
+      <c r="F32" t="str">
+        <v>No Location</v>
+      </c>
+      <c r="G32" t="str">
+        <v>depot</v>
+      </c>
+      <c r="I32" t="str">
+        <v/>
+      </c>
+      <c r="J32" t="str">
+        <v>No</v>
+      </c>
+      <c r="K32" t="str">
+        <v>No</v>
+      </c>
+      <c r="L32" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="str">
+        <v>TEST-SPARE-017</v>
+      </c>
+      <c r="B33" t="str">
+        <v>PN-TEST-017</v>
+      </c>
+      <c r="C33" t="str">
+        <v>Spare Part PN-TEST-017</v>
+      </c>
+      <c r="D33" t="str">
+        <v>FMC</v>
+      </c>
+      <c r="E33" t="str">
+        <v>Full Mission Capable</v>
+      </c>
+      <c r="F33" t="str">
+        <v>No Location</v>
+      </c>
+      <c r="G33" t="str">
+        <v>depot</v>
+      </c>
+      <c r="I33" t="str">
+        <v/>
+      </c>
+      <c r="J33" t="str">
+        <v>No</v>
+      </c>
+      <c r="K33" t="str">
+        <v>No</v>
+      </c>
+      <c r="L33" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="str">
+        <v>TEST-SPARE-018</v>
+      </c>
+      <c r="B34" t="str">
+        <v>PN-TEST-018</v>
+      </c>
+      <c r="C34" t="str">
+        <v>Spare Part PN-TEST-018</v>
+      </c>
+      <c r="D34" t="str">
+        <v>FMC</v>
+      </c>
+      <c r="E34" t="str">
+        <v>Full Mission Capable</v>
+      </c>
+      <c r="F34" t="str">
+        <v>No Location</v>
+      </c>
+      <c r="G34" t="str">
+        <v>depot</v>
+      </c>
+      <c r="I34" t="str">
+        <v/>
+      </c>
+      <c r="J34" t="str">
+        <v>No</v>
+      </c>
+      <c r="K34" t="str">
+        <v>No</v>
+      </c>
+      <c r="L34" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="str">
+        <v>TEST-SPARE-019</v>
+      </c>
+      <c r="B35" t="str">
+        <v>PN-TEST-019</v>
+      </c>
+      <c r="C35" t="str">
+        <v>Spare Part PN-TEST-019</v>
+      </c>
+      <c r="D35" t="str">
+        <v>FMC</v>
+      </c>
+      <c r="E35" t="str">
+        <v>Full Mission Capable</v>
+      </c>
+      <c r="F35" t="str">
+        <v>No Location</v>
+      </c>
+      <c r="G35" t="str">
+        <v>depot</v>
+      </c>
+      <c r="I35" t="str">
+        <v/>
+      </c>
+      <c r="J35" t="str">
+        <v>No</v>
+      </c>
+      <c r="K35" t="str">
+        <v>No</v>
+      </c>
+      <c r="L35" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="str">
+        <v>TEST-SPARE-020</v>
+      </c>
+      <c r="B36" t="str">
+        <v>PN-TEST-020</v>
+      </c>
+      <c r="C36" t="str">
+        <v>Spare Part PN-TEST-020</v>
+      </c>
+      <c r="D36" t="str">
+        <v>FMC</v>
+      </c>
+      <c r="E36" t="str">
+        <v>Full Mission Capable</v>
+      </c>
+      <c r="F36" t="str">
+        <v>No Location</v>
+      </c>
+      <c r="G36" t="str">
+        <v>depot</v>
+      </c>
+      <c r="I36" t="str">
+        <v/>
+      </c>
+      <c r="J36" t="str">
+        <v>No</v>
+      </c>
+      <c r="K36" t="str">
+        <v>No</v>
+      </c>
+      <c r="L36" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="str">
+        <v>TEST-SPARE-021</v>
+      </c>
+      <c r="B37" t="str">
+        <v>PN-TEST-021</v>
+      </c>
+      <c r="C37" t="str">
+        <v>Spare Part PN-TEST-021</v>
+      </c>
+      <c r="D37" t="str">
+        <v>FMC</v>
+      </c>
+      <c r="E37" t="str">
+        <v>Full Mission Capable</v>
+      </c>
+      <c r="F37" t="str">
+        <v>No Location</v>
+      </c>
+      <c r="G37" t="str">
+        <v>depot</v>
+      </c>
+      <c r="I37" t="str">
+        <v/>
+      </c>
+      <c r="J37" t="str">
+        <v>No</v>
+      </c>
+      <c r="K37" t="str">
+        <v>No</v>
+      </c>
+      <c r="L37" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="str">
+        <v>TEST-SPARE-022</v>
+      </c>
+      <c r="B38" t="str">
+        <v>PN-TEST-022</v>
+      </c>
+      <c r="C38" t="str">
+        <v>Spare Part PN-TEST-022</v>
+      </c>
+      <c r="D38" t="str">
+        <v>FMC</v>
+      </c>
+      <c r="E38" t="str">
+        <v>Full Mission Capable</v>
+      </c>
+      <c r="F38" t="str">
+        <v>No Location</v>
+      </c>
+      <c r="G38" t="str">
+        <v>depot</v>
+      </c>
+      <c r="I38" t="str">
+        <v/>
+      </c>
+      <c r="J38" t="str">
+        <v>No</v>
+      </c>
+      <c r="K38" t="str">
+        <v>No</v>
+      </c>
+      <c r="L38" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="str">
+        <v>TEST-SPARE-023</v>
+      </c>
+      <c r="B39" t="str">
+        <v>PN-TEST-023</v>
+      </c>
+      <c r="C39" t="str">
+        <v>Spare Part PN-TEST-023</v>
+      </c>
+      <c r="D39" t="str">
+        <v>FMC</v>
+      </c>
+      <c r="E39" t="str">
+        <v>Full Mission Capable</v>
+      </c>
+      <c r="F39" t="str">
+        <v>No Location</v>
+      </c>
+      <c r="G39" t="str">
+        <v>depot</v>
+      </c>
+      <c r="I39" t="str">
+        <v/>
+      </c>
+      <c r="J39" t="str">
+        <v>No</v>
+      </c>
+      <c r="K39" t="str">
+        <v>No</v>
+      </c>
+      <c r="L39" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="str">
+        <v>TEST-SPARE-024</v>
+      </c>
+      <c r="B40" t="str">
+        <v>PN-TEST-024</v>
+      </c>
+      <c r="C40" t="str">
+        <v>Spare Part PN-TEST-024</v>
+      </c>
+      <c r="D40" t="str">
+        <v>FMC</v>
+      </c>
+      <c r="E40" t="str">
+        <v>Full Mission Capable</v>
+      </c>
+      <c r="F40" t="str">
+        <v>No Location</v>
+      </c>
+      <c r="G40" t="str">
+        <v>depot</v>
+      </c>
+      <c r="I40" t="str">
+        <v/>
+      </c>
+      <c r="J40" t="str">
+        <v>No</v>
+      </c>
+      <c r="K40" t="str">
+        <v>No</v>
+      </c>
+      <c r="L40" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="str">
+        <v>TEST-SPARE-025</v>
+      </c>
+      <c r="B41" t="str">
+        <v>PN-TEST-025</v>
+      </c>
+      <c r="C41" t="str">
+        <v>Spare Part PN-TEST-025</v>
+      </c>
+      <c r="D41" t="str">
+        <v>FMC</v>
+      </c>
+      <c r="E41" t="str">
+        <v>Full Mission Capable</v>
+      </c>
+      <c r="F41" t="str">
+        <v>No Location</v>
+      </c>
+      <c r="G41" t="str">
+        <v>depot</v>
+      </c>
+      <c r="I41" t="str">
+        <v/>
+      </c>
+      <c r="J41" t="str">
+        <v>No</v>
+      </c>
+      <c r="K41" t="str">
+        <v>No</v>
+      </c>
+      <c r="L41" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="str">
+        <v>TEST-SPARE-026</v>
+      </c>
+      <c r="B42" t="str">
+        <v>PN-TEST-026</v>
+      </c>
+      <c r="C42" t="str">
+        <v>Spare Part PN-TEST-026</v>
+      </c>
+      <c r="D42" t="str">
+        <v>FMC</v>
+      </c>
+      <c r="E42" t="str">
+        <v>Full Mission Capable</v>
+      </c>
+      <c r="F42" t="str">
+        <v>No Location</v>
+      </c>
+      <c r="G42" t="str">
+        <v>depot</v>
+      </c>
+      <c r="I42" t="str">
+        <v/>
+      </c>
+      <c r="J42" t="str">
+        <v>No</v>
+      </c>
+      <c r="K42" t="str">
+        <v>No</v>
+      </c>
+      <c r="L42" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="str">
+        <v>TEST-SPARE-027</v>
+      </c>
+      <c r="B43" t="str">
+        <v>PN-TEST-027</v>
+      </c>
+      <c r="C43" t="str">
+        <v>Spare Part PN-TEST-027</v>
+      </c>
+      <c r="D43" t="str">
+        <v>FMC</v>
+      </c>
+      <c r="E43" t="str">
+        <v>Full Mission Capable</v>
+      </c>
+      <c r="F43" t="str">
+        <v>No Location</v>
+      </c>
+      <c r="G43" t="str">
+        <v>depot</v>
+      </c>
+      <c r="I43" t="str">
+        <v/>
+      </c>
+      <c r="J43" t="str">
+        <v>No</v>
+      </c>
+      <c r="K43" t="str">
+        <v>No</v>
+      </c>
+      <c r="L43" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="str">
+        <v>TEST-SPARE-028</v>
+      </c>
+      <c r="B44" t="str">
+        <v>PN-TEST-028</v>
+      </c>
+      <c r="C44" t="str">
+        <v>Spare Part PN-TEST-028</v>
+      </c>
+      <c r="D44" t="str">
+        <v>FMC</v>
+      </c>
+      <c r="E44" t="str">
+        <v>Full Mission Capable</v>
+      </c>
+      <c r="F44" t="str">
+        <v>No Location</v>
+      </c>
+      <c r="G44" t="str">
+        <v>depot</v>
+      </c>
+      <c r="I44" t="str">
+        <v/>
+      </c>
+      <c r="J44" t="str">
+        <v>No</v>
+      </c>
+      <c r="K44" t="str">
+        <v>No</v>
+      </c>
+      <c r="L44" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="str">
+        <v>TEST-SPARE-029</v>
+      </c>
+      <c r="B45" t="str">
+        <v>PN-TEST-029</v>
+      </c>
+      <c r="C45" t="str">
+        <v>Spare Part PN-TEST-029</v>
+      </c>
+      <c r="D45" t="str">
+        <v>FMC</v>
+      </c>
+      <c r="E45" t="str">
+        <v>Full Mission Capable</v>
+      </c>
+      <c r="F45" t="str">
+        <v>No Location</v>
+      </c>
+      <c r="G45" t="str">
+        <v>depot</v>
+      </c>
+      <c r="I45" t="str">
+        <v/>
+      </c>
+      <c r="J45" t="str">
+        <v>No</v>
+      </c>
+      <c r="K45" t="str">
+        <v>No</v>
+      </c>
+      <c r="L45" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="str">
+        <v>TEST-SPARE-030</v>
+      </c>
+      <c r="B46" t="str">
+        <v>PN-TEST-030</v>
+      </c>
+      <c r="C46" t="str">
+        <v>Spare Part PN-TEST-030</v>
+      </c>
+      <c r="D46" t="str">
+        <v>FMC</v>
+      </c>
+      <c r="E46" t="str">
+        <v>Full Mission Capable</v>
+      </c>
+      <c r="F46" t="str">
+        <v>No Location</v>
+      </c>
+      <c r="G46" t="str">
+        <v>depot</v>
+      </c>
+      <c r="I46" t="str">
+        <v/>
+      </c>
+      <c r="J46" t="str">
+        <v>No</v>
+      </c>
+      <c r="K46" t="str">
+        <v>No</v>
+      </c>
+      <c r="L46" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="str">
+        <v>TEST-SPARE-031</v>
+      </c>
+      <c r="B47" t="str">
+        <v>PN-TEST-031</v>
+      </c>
+      <c r="C47" t="str">
+        <v>Spare Part PN-TEST-031</v>
+      </c>
+      <c r="D47" t="str">
+        <v>FMC</v>
+      </c>
+      <c r="E47" t="str">
+        <v>Full Mission Capable</v>
+      </c>
+      <c r="F47" t="str">
+        <v>No Location</v>
+      </c>
+      <c r="G47" t="str">
+        <v>depot</v>
+      </c>
+      <c r="I47" t="str">
+        <v/>
+      </c>
+      <c r="J47" t="str">
+        <v>No</v>
+      </c>
+      <c r="K47" t="str">
+        <v>No</v>
+      </c>
+      <c r="L47" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="str">
+        <v>TEST-SPARE-032</v>
+      </c>
+      <c r="B48" t="str">
+        <v>PN-TEST-032</v>
+      </c>
+      <c r="C48" t="str">
+        <v>Spare Part PN-TEST-032</v>
+      </c>
+      <c r="D48" t="str">
+        <v>FMC</v>
+      </c>
+      <c r="E48" t="str">
+        <v>Full Mission Capable</v>
+      </c>
+      <c r="F48" t="str">
+        <v>No Location</v>
+      </c>
+      <c r="G48" t="str">
+        <v>depot</v>
+      </c>
+      <c r="I48" t="str">
+        <v/>
+      </c>
+      <c r="J48" t="str">
+        <v>No</v>
+      </c>
+      <c r="K48" t="str">
+        <v>No</v>
+      </c>
+      <c r="L48" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="str">
+        <v>TEST-SPARE-033</v>
+      </c>
+      <c r="B49" t="str">
+        <v>PN-TEST-033</v>
+      </c>
+      <c r="C49" t="str">
+        <v>Spare Part PN-TEST-033</v>
+      </c>
+      <c r="D49" t="str">
+        <v>FMC</v>
+      </c>
+      <c r="E49" t="str">
+        <v>Full Mission Capable</v>
+      </c>
+      <c r="F49" t="str">
+        <v>No Location</v>
+      </c>
+      <c r="G49" t="str">
+        <v>depot</v>
+      </c>
+      <c r="I49" t="str">
+        <v/>
+      </c>
+      <c r="J49" t="str">
+        <v>No</v>
+      </c>
+      <c r="K49" t="str">
+        <v>No</v>
+      </c>
+      <c r="L49" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="str">
+        <v>TEST-SPARE-034</v>
+      </c>
+      <c r="B50" t="str">
+        <v>PN-TEST-034</v>
+      </c>
+      <c r="C50" t="str">
+        <v>Spare Part PN-TEST-034</v>
+      </c>
+      <c r="D50" t="str">
+        <v>FMC</v>
+      </c>
+      <c r="E50" t="str">
+        <v>Full Mission Capable</v>
+      </c>
+      <c r="F50" t="str">
+        <v>No Location</v>
+      </c>
+      <c r="G50" t="str">
+        <v>depot</v>
+      </c>
+      <c r="I50" t="str">
+        <v/>
+      </c>
+      <c r="J50" t="str">
+        <v>No</v>
+      </c>
+      <c r="K50" t="str">
+        <v>No</v>
+      </c>
+      <c r="L50" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="str">
+        <v>TEST-SPARE-035</v>
+      </c>
+      <c r="B51" t="str">
+        <v>PN-TEST-035</v>
+      </c>
+      <c r="C51" t="str">
+        <v>Spare Part PN-TEST-035</v>
+      </c>
+      <c r="D51" t="str">
+        <v>FMC</v>
+      </c>
+      <c r="E51" t="str">
+        <v>Full Mission Capable</v>
+      </c>
+      <c r="F51" t="str">
+        <v>No Location</v>
+      </c>
+      <c r="G51" t="str">
+        <v>depot</v>
+      </c>
+      <c r="I51" t="str">
+        <v/>
+      </c>
+      <c r="J51" t="str">
+        <v>No</v>
+      </c>
+      <c r="K51" t="str">
+        <v>No</v>
+      </c>
+      <c r="L51" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="str">
         <v>CUI - CONTROLLED UNCLASSIFIED INFORMATION</v>
       </c>
     </row>
@@ -865,10 +2052,10 @@
     <mergeCell ref="A3:L3"/>
     <mergeCell ref="A4:L4"/>
     <mergeCell ref="A5:L5"/>
-    <mergeCell ref="A19:L19"/>
+    <mergeCell ref="A53:L53"/>
   </mergeCells>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:L19"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:L53"/>
   </ignoredErrors>
 </worksheet>
 </file>